--- a/case_study/patios_breakpoints.xlsx
+++ b/case_study/patios_breakpoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0.sharepoint.com/sites/GrupodeTrabajodeJusto/Documentos compartidos/General/AMMDRPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0.sharepoint.com/sites/GrupodeTrabajodeJusto/Documentos compartidos/General/AMMDRPG/case_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="312" documentId="11_ACF3C337CF8427F38D6C27F33F8CD82E26D6D9B0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{EFD49C4F-CD99-47B6-B981-8AB0A3590679}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="11_ACF3C337CF8427F38D6C27F33F8CD82E26D6D9B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B969709-2587-4220-A3F9-531308B2C7D6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruta1" sheetId="1" r:id="rId1"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343AE058-65B6-477E-B0FF-37127B64BAB0}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +889,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>216.63</v>
+        <v>216.16</v>
       </c>
       <c r="B2">
         <v>95.92</v>
@@ -1343,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BA727D-60DB-4051-856B-CACF64C7D958}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1588,9 +1588,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1805,31 +1808,43 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80EBE70B-0AAC-4217-A91F-0984A0D05809}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A520CA0C-E6D3-4B5F-9C40-25823D6C1B8D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="116ddbad-b67c-4622-b846-55da43670eb8"/>
+    <ds:schemaRef ds:uri="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F581D1-E4C6-4F7F-AD62-5479D869D3BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A520CA0C-E6D3-4B5F-9C40-25823D6C1B8D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80EBE70B-0AAC-4217-A91F-0984A0D05809}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/case_study/patios_breakpoints.xlsx
+++ b/case_study/patios_breakpoints.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0.sharepoint.com/sites/GrupodeTrabajodeJusto/Documentos compartidos/General/AMMDRPG/case_study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="11_ACF3C337CF8427F38D6C27F33F8CD82E26D6D9B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B969709-2587-4220-A3F9-531308B2C7D6}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="11_ACF3C337CF8427F38D6C27F33F8CD82E26D6D9B0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{407C7949-DF4C-422D-B7F8-93A1CA83C92F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruta1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,19 @@
     <sheet name="Ruta5" sheetId="5" r:id="rId5"/>
     <sheet name="Ruta6" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -354,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -370,68 +379,100 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>6.22</v>
       </c>
       <c r="B2">
         <v>148.44</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f>200-B2</f>
+        <v>51.56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10.52</v>
       </c>
       <c r="B3">
         <v>147.69</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="0">200-B3</f>
+        <v>52.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7.77</v>
       </c>
       <c r="B4">
         <v>142.29</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>57.710000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21.01</v>
       </c>
       <c r="B5">
         <v>137.16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>62.84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>20.9</v>
       </c>
       <c r="B6">
         <v>135.72999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>64.27000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>29.5</v>
       </c>
       <c r="B7">
         <v>132.41</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>67.59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>29.35</v>
       </c>
       <c r="B8">
         <v>128.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>71.849999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25.39</v>
       </c>
       <c r="B9">
         <v>126.15</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>73.849999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343AE058-65B6-477E-B0FF-37127B64BAB0}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1588,15 +1629,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100CC872E1270CB784E9B98D50896A839F6" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="b9b2a30e095b2a99c7a4efd6f687c21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="116ddbad-b67c-4622-b846-55da43670eb8" xmlns:ns3="0838a0db-6cb4-4fef-a3f8-577e3ea6a4fe" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ae991ae10615842d01d4ebb88da5dac4" ns2:_="" ns3:_="">
     <xsd:import namespace="116ddbad-b67c-4622-b846-55da43670eb8"/>
@@ -1807,6 +1839,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1814,14 +1855,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80EBE70B-0AAC-4217-A91F-0984A0D05809}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A520CA0C-E6D3-4B5F-9C40-25823D6C1B8D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1840,6 +1873,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{80EBE70B-0AAC-4217-A91F-0984A0D05809}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F581D1-E4C6-4F7F-AD62-5479D869D3BF}">
   <ds:schemaRefs>
